--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC15_Verify_ViewFullCart.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC15_Verify_ViewFullCart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13069892-9953-4BE2-A816-59A27E17B384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E5DECB-6ECE-401A-A5C1-6581FDA889FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>TestCase</t>
   </si>
@@ -193,9 +193,6 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>SCROLL_DOWN</t>
-  </si>
-  <si>
     <t>TC15_Verify_ViewFullCart</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>CartImage</t>
   </si>
   <si>
-    <t>ViewFullCart</t>
-  </si>
-  <si>
     <t>CartOrderTotal</t>
   </si>
   <si>
@@ -221,6 +215,9 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -638,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -670,7 +667,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -689,81 +686,77 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
@@ -771,54 +764,58 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
@@ -827,51 +824,47 @@
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
@@ -880,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -893,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -908,13 +901,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -923,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1163,7 +1156,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1171,7 +1164,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1179,7 +1172,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1195,12 +1188,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1397,6 +1384,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1407,15 +1400,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1434,6 +1418,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
